--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\Desktop\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DBA6FC-D90F-442F-98D9-7A940080F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D78E0CE-F1A7-4EE2-924E-E7B8FE51535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0A36BAAF-45A6-4F05-B60E-701A51D33467}"/>
   </bookViews>
@@ -170,6 +170,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,7 +180,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,27 +521,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -691,10 +691,10 @@
       <c r="P5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -730,10 +730,10 @@
       <c r="P6" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -754,10 +754,10 @@
       <c r="P7" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -778,10 +778,10 @@
       <c r="P8" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
